--- a/Output/test3_page0.xlsx
+++ b/Output/test3_page0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,33 +449,29 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>edoch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>trainloss</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>train oss</t>
+          <t>validloss</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>validloss</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>accuracv</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>time</t>
         </is>
@@ -483,49 +479,47 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.871673</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.871873</t>
+          <t>0.890589</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.890589</t>
+          <t>0.560000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.580000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>00-02</t>
+          <t>00.02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.809895</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.809895</t>
+          <t>1.017932</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.017932</t>
+          <t>0.880000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.8600o0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>00.02</t>
+          <t>00:02</t>
         </is>
       </c>
     </row>
@@ -535,23 +529,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.474530</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.474530</t>
+          <t>1.093525</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1,.093525</t>
+          <t>0.780000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>0,780000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>00:02</t>
         </is>
@@ -563,23 +556,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.418120</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.418120</t>
+          <t>1.386144</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.388144</t>
+          <t>0.780000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>0,780000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>00.02</t>
         </is>
@@ -587,23 +579,22 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.330856</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.330858</t>
+          <t>0.890509</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.890509</t>
+          <t>0.880000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>0.86000o</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>00.02</t>
         </is>
@@ -615,23 +606,22 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.244123</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0244123</t>
+          <t>0.844521</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.844521</t>
+          <t>0.760000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>0.760000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>00:02</t>
         </is>
@@ -643,47 +633,45 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.178184</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0 178184</t>
+          <t>0.834935</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.834935</t>
+          <t>0.8000o0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8000o0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>00:02</t>
+          <t>0Q-02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.131585</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0. 131585</t>
+          <t>0.842775</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.842775</t>
+          <t>0.800000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>0.800000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>00.02</t>
         </is>
@@ -691,25 +679,24 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.098164</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.098164</t>
+          <t>0.838589</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.838589</t>
+          <t>0.800o00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8000oo</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>00:02</t>
+          <t>00.02</t>
         </is>
       </c>
     </row>
@@ -719,25 +706,24 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.074047</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.074047</t>
+          <t>0.848848</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.848848</t>
+          <t>0.800000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.8000oo</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>00:02</t>
+          <t>00-02</t>
         </is>
       </c>
     </row>

--- a/Output/test3_page0.xlsx
+++ b/Output/test3_page0.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00.02</t>
+          <t>00-02</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
